--- a/biology/Zoologie/Eryma/Eryma.xlsx
+++ b/biology/Zoologie/Eryma/Eryma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryma est un genre éteint de crustacés décapodes. Le genre s'étend sur 100 millions d’années, du Trias jusqu’au Crétacé inférieur (Hauterivien)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryma est un genre éteint de crustacés décapodes. Le genre s'étend sur 100 millions d’années, du Trias jusqu’au Crétacé inférieur (Hauterivien).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste de espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>44 espèces sont reconnues[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44 espèces sont reconnues
 Eryma modestiforme Schlotheim 1822 (type ; cette espèce a été initialement décrite sous le nom de Macrourites modestiformis en 1822)
 Eryma sulcata Harbourt 1905
 Eryma cumonti Van Straelin 1921
@@ -528,9 +542,9 @@
 Eryma radiata Oppel
 Eryma ventrosa Von Meyer
 Eryma cretacea
-Eryma foersteri Rodney M. Feldman  1979[4]
+Eryma foersteri Rodney M. Feldman  1979
 Eryma jungostrix
-Eryma walkerae Rodney Feldmann &amp; James Haggert 2007[5]</t>
+Eryma walkerae Rodney Feldmann &amp; James Haggert 2007</t>
         </is>
       </c>
     </row>
@@ -558,7 +572,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eryma Gray, 1870 est un synonyme de Mauremys Gray, 1869.</t>
         </is>
